--- a/Trip-Advisor/src/test/java/com/cognizant/utilities/Excel_StatusReport.xlsx
+++ b/Trip-Advisor/src/test/java/com/cognizant/utilities/Excel_StatusReport.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="22">
   <si>
     <t>S.No</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -471,7 +474,9 @@
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4"/>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -480,7 +485,9 @@
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5"/>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -489,6 +496,9 @@
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -508,6 +518,9 @@
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -516,6 +529,9 @@
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -596,6 +612,9 @@
       </c>
       <c r="B18" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Trip-Advisor/src/test/java/com/cognizant/utilities/Excel_StatusReport.xlsx
+++ b/Trip-Advisor/src/test/java/com/cognizant/utilities/Excel_StatusReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\New\git\Trip-Advisor-Automation\Trip Advisor Automation\src\com\cognizant\utilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\New\git\Trip-Advisor\Trip-Advisor\src\test\java\com\cognizant\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
   <si>
     <t>S.No</t>
   </si>
@@ -32,9 +32,6 @@
     <t>Test case Name</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>TC11_CheckAutoSuggestion</t>
   </si>
   <si>
@@ -90,6 +87,9 @@
   </si>
   <si>
     <t>Fail</t>
+  </si>
+  <si>
+    <t>Status (Pass /Fail)</t>
   </si>
 </sst>
 </file>
@@ -426,14 +426,14 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
     <col min="2" max="2" customWidth="true" style="2" width="36.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="19.42578125" collapsed="true"/>
     <col min="4" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
@@ -445,7 +445,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -453,10 +453,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -464,7 +464,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -472,10 +475,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -483,10 +486,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -494,10 +497,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -505,10 +508,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -516,10 +519,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -527,10 +530,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -538,7 +541,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -546,7 +552,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -554,7 +563,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -562,7 +574,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -570,7 +585,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -578,10 +596,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -589,32 +607,32 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Trip-Advisor/src/test/java/com/cognizant/utilities/Excel_StatusReport.xlsx
+++ b/Trip-Advisor/src/test/java/com/cognizant/utilities/Excel_StatusReport.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="22">
   <si>
     <t>S.No</t>
   </si>
@@ -621,7 +621,7 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
